--- a/history-2025-12-17.xlsx
+++ b/history-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:27:56</v>
+        <v>16:38:04</v>
       </c>
       <c r="F2" t="str">
         <v>227028-8400</v>
@@ -452,7 +452,7 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="3">
@@ -460,16 +460,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>16:27:53</v>
+        <v>16:37:57</v>
       </c>
       <c r="F3" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G3" t="str">
         <v/>
       </c>
       <c r="H3" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>16:27:41</v>
+        <v>16:37:48</v>
       </c>
       <c r="F4" t="str">
         <v>227028-8400</v>
@@ -494,7 +494,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>16:27:41</v>
+        <v>16:37:39</v>
       </c>
       <c r="F5" t="str">
         <v>227028-8400</v>
@@ -503,7 +503,7 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="6">
@@ -511,7 +511,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>16:27:40</v>
+        <v>16:27:56</v>
       </c>
       <c r="F6" t="str">
         <v>227028-8400</v>
@@ -528,7 +528,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>16:27:38</v>
+        <v>16:27:53</v>
       </c>
       <c r="F7" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -545,7 +545,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>16:25:43</v>
+        <v>16:27:41</v>
       </c>
       <c r="F8" t="str">
         <v>227028-8400</v>
@@ -562,7 +562,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>16:25:43</v>
+        <v>16:27:41</v>
       </c>
       <c r="F9" t="str">
         <v>227028-8400</v>
@@ -579,7 +579,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>16:25:41</v>
+        <v>16:27:40</v>
       </c>
       <c r="F10" t="str">
         <v>227028-8400</v>
@@ -596,7 +596,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>16:25:40</v>
+        <v>16:27:38</v>
       </c>
       <c r="F11" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -613,7 +613,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>16:22:41</v>
+        <v>16:25:43</v>
       </c>
       <c r="F12" t="str">
         <v>227028-8400</v>
@@ -630,7 +630,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>16:22:41</v>
+        <v>16:25:43</v>
       </c>
       <c r="F13" t="str">
         <v>227028-8400</v>
@@ -647,7 +647,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>16:22:40</v>
+        <v>16:25:41</v>
       </c>
       <c r="F14" t="str">
         <v>227028-8400</v>
@@ -664,7 +664,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>16:22:39</v>
+        <v>16:25:40</v>
       </c>
       <c r="F15" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -681,7 +681,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>16:22:36</v>
+        <v>16:22:41</v>
       </c>
       <c r="F16" t="str">
         <v>227028-8400</v>
@@ -698,7 +698,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>16:22:36</v>
+        <v>16:22:41</v>
       </c>
       <c r="F17" t="str">
         <v>227028-8400</v>
@@ -715,7 +715,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>16:22:35</v>
+        <v>16:22:40</v>
       </c>
       <c r="F18" t="str">
         <v>227028-8400</v>
@@ -732,7 +732,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>16:22:34</v>
+        <v>16:22:39</v>
       </c>
       <c r="F19" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -749,7 +749,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B20" t="str">
-        <v>16:22:32</v>
+        <v>16:22:36</v>
       </c>
       <c r="F20" t="str">
         <v>227028-8400</v>
@@ -766,7 +766,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B21" t="str">
-        <v>16:22:32</v>
+        <v>16:22:36</v>
       </c>
       <c r="F21" t="str">
         <v>227028-8400</v>
@@ -783,7 +783,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B22" t="str">
-        <v>16:22:31</v>
+        <v>16:22:35</v>
       </c>
       <c r="F22" t="str">
         <v>227028-8400</v>
@@ -800,7 +800,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B23" t="str">
-        <v>16:22:30</v>
+        <v>16:22:34</v>
       </c>
       <c r="F23" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -817,7 +817,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B24" t="str">
-        <v>16:22:20</v>
+        <v>16:22:32</v>
       </c>
       <c r="F24" t="str">
         <v>227028-8400</v>
@@ -834,7 +834,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B25" t="str">
-        <v>16:22:20</v>
+        <v>16:22:32</v>
       </c>
       <c r="F25" t="str">
         <v>227028-8400</v>
@@ -851,7 +851,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B26" t="str">
-        <v>16:22:18</v>
+        <v>16:22:31</v>
       </c>
       <c r="F26" t="str">
         <v>227028-8400</v>
@@ -868,7 +868,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B27" t="str">
-        <v>16:22:16</v>
+        <v>16:22:30</v>
       </c>
       <c r="F27" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -885,16 +885,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B28" t="str">
-        <v>16:20:12</v>
+        <v>16:22:20</v>
       </c>
       <c r="F28" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G28" t="str">
         <v/>
       </c>
       <c r="H28" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="29">
@@ -902,7 +902,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B29" t="str">
-        <v>16:11:16</v>
+        <v>16:22:20</v>
       </c>
       <c r="F29" t="str">
         <v>227028-8400</v>
@@ -919,10 +919,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B30" t="str">
-        <v>16:11:12</v>
+        <v>16:22:18</v>
       </c>
       <c r="F30" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -936,7 +936,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B31" t="str">
-        <v>16:08:26</v>
+        <v>16:22:16</v>
       </c>
       <c r="F31" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -953,7 +953,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B32" t="str">
-        <v>16:07:53</v>
+        <v>16:20:12</v>
       </c>
       <c r="F32" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -970,10 +970,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B33" t="str">
-        <v>16:06:10</v>
+        <v>16:11:16</v>
       </c>
       <c r="F33" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -987,7 +987,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B34" t="str">
-        <v>16:00:21</v>
+        <v>16:11:12</v>
       </c>
       <c r="F34" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1004,7 +1004,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B35" t="str">
-        <v>15:12:54</v>
+        <v>16:08:26</v>
       </c>
       <c r="F35" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1013,7 +1013,7 @@
         <v/>
       </c>
       <c r="H35" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="36">
@@ -1021,7 +1021,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B36" t="str">
-        <v>15:12:54</v>
+        <v>16:07:53</v>
       </c>
       <c r="F36" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1038,7 +1038,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B37" t="str">
-        <v>15:10:44</v>
+        <v>16:06:10</v>
       </c>
       <c r="F37" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1047,7 +1047,7 @@
         <v/>
       </c>
       <c r="H37" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="38">
@@ -1055,7 +1055,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B38" t="str">
-        <v>15:10:44</v>
+        <v>16:00:21</v>
       </c>
       <c r="F38" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1072,7 +1072,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B39" t="str">
-        <v>15:08:22</v>
+        <v>15:12:54</v>
       </c>
       <c r="F39" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1089,7 +1089,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B40" t="str">
-        <v>15:08:22</v>
+        <v>15:12:54</v>
       </c>
       <c r="F40" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1106,7 +1106,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B41" t="str">
-        <v>14:55:13</v>
+        <v>15:10:44</v>
       </c>
       <c r="F41" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1123,7 +1123,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B42" t="str">
-        <v>14:55:13</v>
+        <v>15:10:44</v>
       </c>
       <c r="F42" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1140,7 +1140,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B43" t="str">
-        <v>14:52:03</v>
+        <v>15:08:22</v>
       </c>
       <c r="F43" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1157,7 +1157,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B44" t="str">
-        <v>14:52:03</v>
+        <v>15:08:22</v>
       </c>
       <c r="F44" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1174,7 +1174,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B45" t="str">
-        <v>14:50:28</v>
+        <v>14:55:13</v>
       </c>
       <c r="F45" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1191,21 +1191,89 @@
         <v>17/12/2025</v>
       </c>
       <c r="B46" t="str">
+        <v>14:55:13</v>
+      </c>
+      <c r="F46" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B47" t="str">
+        <v>14:52:03</v>
+      </c>
+      <c r="F47" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B48" t="str">
+        <v>14:52:03</v>
+      </c>
+      <c r="F48" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B49" t="str">
         <v>14:50:28</v>
       </c>
-      <c r="F46" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
+      <c r="F49" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B50" t="str">
+        <v>14:50:28</v>
+      </c>
+      <c r="F50" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
         <v>MATCHED_FIELD</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-17.xlsx
+++ b/history-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:38:04</v>
+        <v>16:57:27</v>
       </c>
       <c r="F2" t="str">
         <v>227028-8400</v>
@@ -460,7 +460,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>16:37:57</v>
+        <v>16:56:46</v>
       </c>
       <c r="F3" t="str">
         <v>227028-8400</v>
@@ -477,7 +477,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>16:37:48</v>
+        <v>16:53:10</v>
       </c>
       <c r="F4" t="str">
         <v>227028-8400</v>
@@ -494,7 +494,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>16:37:39</v>
+        <v>16:50:13</v>
       </c>
       <c r="F5" t="str">
         <v>227028-8400</v>
@@ -511,7 +511,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>16:27:56</v>
+        <v>16:50:05</v>
       </c>
       <c r="F6" t="str">
         <v>227028-8400</v>
@@ -520,7 +520,7 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="7">
@@ -528,16 +528,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>16:27:53</v>
+        <v>16:46:14</v>
       </c>
       <c r="F7" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G7" t="str">
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>16:27:41</v>
+        <v>16:38:04</v>
       </c>
       <c r="F8" t="str">
         <v>227028-8400</v>
@@ -562,7 +562,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>16:27:41</v>
+        <v>16:37:57</v>
       </c>
       <c r="F9" t="str">
         <v>227028-8400</v>
@@ -571,7 +571,7 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>16:27:40</v>
+        <v>16:37:48</v>
       </c>
       <c r="F10" t="str">
         <v>227028-8400</v>
@@ -588,7 +588,7 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="11">
@@ -596,16 +596,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>16:27:38</v>
+        <v>16:37:39</v>
       </c>
       <c r="F11" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G11" t="str">
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="12">
@@ -613,7 +613,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>16:25:43</v>
+        <v>16:27:56</v>
       </c>
       <c r="F12" t="str">
         <v>227028-8400</v>
@@ -622,7 +622,7 @@
         <v/>
       </c>
       <c r="H12" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>16:25:43</v>
+        <v>16:27:53</v>
       </c>
       <c r="F13" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -647,7 +647,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>16:25:41</v>
+        <v>16:27:41</v>
       </c>
       <c r="F14" t="str">
         <v>227028-8400</v>
@@ -656,7 +656,7 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="15">
@@ -664,10 +664,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>16:25:40</v>
+        <v>16:27:41</v>
       </c>
       <c r="F15" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -681,7 +681,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>16:22:41</v>
+        <v>16:27:40</v>
       </c>
       <c r="F16" t="str">
         <v>227028-8400</v>
@@ -690,7 +690,7 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="17">
@@ -698,10 +698,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>16:22:41</v>
+        <v>16:27:38</v>
       </c>
       <c r="F17" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -715,7 +715,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>16:22:40</v>
+        <v>16:25:43</v>
       </c>
       <c r="F18" t="str">
         <v>227028-8400</v>
@@ -724,7 +724,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>16:22:39</v>
+        <v>16:25:43</v>
       </c>
       <c r="F19" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -749,7 +749,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B20" t="str">
-        <v>16:22:36</v>
+        <v>16:25:41</v>
       </c>
       <c r="F20" t="str">
         <v>227028-8400</v>
@@ -758,7 +758,7 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="21">
@@ -766,10 +766,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B21" t="str">
-        <v>16:22:36</v>
+        <v>16:25:40</v>
       </c>
       <c r="F21" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -783,7 +783,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B22" t="str">
-        <v>16:22:35</v>
+        <v>16:22:41</v>
       </c>
       <c r="F22" t="str">
         <v>227028-8400</v>
@@ -792,7 +792,7 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="23">
@@ -800,10 +800,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B23" t="str">
-        <v>16:22:34</v>
+        <v>16:22:41</v>
       </c>
       <c r="F23" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -817,7 +817,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B24" t="str">
-        <v>16:22:32</v>
+        <v>16:22:40</v>
       </c>
       <c r="F24" t="str">
         <v>227028-8400</v>
@@ -826,7 +826,7 @@
         <v/>
       </c>
       <c r="H24" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B25" t="str">
-        <v>16:22:32</v>
+        <v>16:22:39</v>
       </c>
       <c r="F25" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -851,7 +851,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B26" t="str">
-        <v>16:22:31</v>
+        <v>16:22:36</v>
       </c>
       <c r="F26" t="str">
         <v>227028-8400</v>
@@ -860,7 +860,7 @@
         <v/>
       </c>
       <c r="H26" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="27">
@@ -868,10 +868,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B27" t="str">
-        <v>16:22:30</v>
+        <v>16:22:36</v>
       </c>
       <c r="F27" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -885,7 +885,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B28" t="str">
-        <v>16:22:20</v>
+        <v>16:22:35</v>
       </c>
       <c r="F28" t="str">
         <v>227028-8400</v>
@@ -894,7 +894,7 @@
         <v/>
       </c>
       <c r="H28" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +902,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B29" t="str">
-        <v>16:22:20</v>
+        <v>16:22:34</v>
       </c>
       <c r="F29" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -919,7 +919,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B30" t="str">
-        <v>16:22:18</v>
+        <v>16:22:32</v>
       </c>
       <c r="F30" t="str">
         <v>227028-8400</v>
@@ -928,7 +928,7 @@
         <v/>
       </c>
       <c r="H30" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="31">
@@ -936,10 +936,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B31" t="str">
-        <v>16:22:16</v>
+        <v>16:22:32</v>
       </c>
       <c r="F31" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -953,10 +953,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B32" t="str">
-        <v>16:20:12</v>
+        <v>16:22:31</v>
       </c>
       <c r="F32" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -970,10 +970,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B33" t="str">
-        <v>16:11:16</v>
+        <v>16:22:30</v>
       </c>
       <c r="F33" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -987,16 +987,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B34" t="str">
-        <v>16:11:12</v>
+        <v>16:22:20</v>
       </c>
       <c r="F34" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G34" t="str">
         <v/>
       </c>
       <c r="H34" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="35">
@@ -1004,10 +1004,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B35" t="str">
-        <v>16:08:26</v>
+        <v>16:22:20</v>
       </c>
       <c r="F35" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1021,10 +1021,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B36" t="str">
-        <v>16:07:53</v>
+        <v>16:22:18</v>
       </c>
       <c r="F36" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1038,7 +1038,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B37" t="str">
-        <v>16:06:10</v>
+        <v>16:22:16</v>
       </c>
       <c r="F37" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1055,7 +1055,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B38" t="str">
-        <v>16:00:21</v>
+        <v>16:20:12</v>
       </c>
       <c r="F38" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1072,16 +1072,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B39" t="str">
-        <v>15:12:54</v>
+        <v>16:11:16</v>
       </c>
       <c r="F39" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G39" t="str">
         <v/>
       </c>
       <c r="H39" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="40">
@@ -1089,7 +1089,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B40" t="str">
-        <v>15:12:54</v>
+        <v>16:11:12</v>
       </c>
       <c r="F40" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1106,7 +1106,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B41" t="str">
-        <v>15:10:44</v>
+        <v>16:08:26</v>
       </c>
       <c r="F41" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1115,7 +1115,7 @@
         <v/>
       </c>
       <c r="H41" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="42">
@@ -1123,7 +1123,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B42" t="str">
-        <v>15:10:44</v>
+        <v>16:07:53</v>
       </c>
       <c r="F42" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1140,7 +1140,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B43" t="str">
-        <v>15:08:22</v>
+        <v>16:06:10</v>
       </c>
       <c r="F43" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1149,7 +1149,7 @@
         <v/>
       </c>
       <c r="H43" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="44">
@@ -1157,7 +1157,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B44" t="str">
-        <v>15:08:22</v>
+        <v>16:00:21</v>
       </c>
       <c r="F44" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1174,7 +1174,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B45" t="str">
-        <v>14:55:13</v>
+        <v>15:12:54</v>
       </c>
       <c r="F45" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1191,7 +1191,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B46" t="str">
-        <v>14:55:13</v>
+        <v>15:12:54</v>
       </c>
       <c r="F46" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1208,7 +1208,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B47" t="str">
-        <v>14:52:03</v>
+        <v>15:10:44</v>
       </c>
       <c r="F47" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1225,7 +1225,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B48" t="str">
-        <v>14:52:03</v>
+        <v>15:10:44</v>
       </c>
       <c r="F48" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1242,7 +1242,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B49" t="str">
-        <v>14:50:28</v>
+        <v>15:08:22</v>
       </c>
       <c r="F49" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1259,21 +1259,123 @@
         <v>17/12/2025</v>
       </c>
       <c r="B50" t="str">
+        <v>15:08:22</v>
+      </c>
+      <c r="F50" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B51" t="str">
+        <v>14:55:13</v>
+      </c>
+      <c r="F51" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B52" t="str">
+        <v>14:55:13</v>
+      </c>
+      <c r="F52" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B53" t="str">
+        <v>14:52:03</v>
+      </c>
+      <c r="F53" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B54" t="str">
+        <v>14:52:03</v>
+      </c>
+      <c r="F54" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B55" t="str">
         <v>14:50:28</v>
       </c>
-      <c r="F50" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-      <c r="H50" t="str">
+      <c r="F55" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B56" t="str">
+        <v>14:50:28</v>
+      </c>
+      <c r="F56" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
         <v>MATCHED_FIELD</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H56"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/history-2025-12-17.xlsx
+++ b/history-2025-12-17.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,10 +440,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>17/12/2025</v>
+        <v>18/12/2025</v>
       </c>
       <c r="B2" t="str">
-        <v>16:57:27</v>
+        <v>01:19:24</v>
       </c>
       <c r="F2" t="str">
         <v>227028-8400</v>
@@ -457,10 +457,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>17/12/2025</v>
+        <v>18/12/2025</v>
       </c>
       <c r="B3" t="str">
-        <v>16:56:46</v>
+        <v>01:19:15</v>
       </c>
       <c r="F3" t="str">
         <v>227028-8400</v>
@@ -477,7 +477,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B4" t="str">
-        <v>16:53:10</v>
+        <v>16:57:27</v>
       </c>
       <c r="F4" t="str">
         <v>227028-8400</v>
@@ -494,7 +494,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B5" t="str">
-        <v>16:50:13</v>
+        <v>16:56:46</v>
       </c>
       <c r="F5" t="str">
         <v>227028-8400</v>
@@ -511,7 +511,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B6" t="str">
-        <v>16:50:05</v>
+        <v>16:53:10</v>
       </c>
       <c r="F6" t="str">
         <v>227028-8400</v>
@@ -528,7 +528,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B7" t="str">
-        <v>16:46:14</v>
+        <v>16:50:13</v>
       </c>
       <c r="F7" t="str">
         <v>227028-8400</v>
@@ -545,7 +545,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B8" t="str">
-        <v>16:38:04</v>
+        <v>16:50:05</v>
       </c>
       <c r="F8" t="str">
         <v>227028-8400</v>
@@ -562,7 +562,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B9" t="str">
-        <v>16:37:57</v>
+        <v>16:46:14</v>
       </c>
       <c r="F9" t="str">
         <v>227028-8400</v>
@@ -579,7 +579,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B10" t="str">
-        <v>16:37:48</v>
+        <v>16:38:04</v>
       </c>
       <c r="F10" t="str">
         <v>227028-8400</v>
@@ -596,7 +596,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B11" t="str">
-        <v>16:37:39</v>
+        <v>16:37:57</v>
       </c>
       <c r="F11" t="str">
         <v>227028-8400</v>
@@ -613,7 +613,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B12" t="str">
-        <v>16:27:56</v>
+        <v>16:37:48</v>
       </c>
       <c r="F12" t="str">
         <v>227028-8400</v>
@@ -622,7 +622,7 @@
         <v/>
       </c>
       <c r="H12" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="13">
@@ -630,16 +630,16 @@
         <v>17/12/2025</v>
       </c>
       <c r="B13" t="str">
-        <v>16:27:53</v>
+        <v>16:37:39</v>
       </c>
       <c r="F13" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G13" t="str">
         <v/>
       </c>
       <c r="H13" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="14">
@@ -647,7 +647,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B14" t="str">
-        <v>16:27:41</v>
+        <v>16:27:56</v>
       </c>
       <c r="F14" t="str">
         <v>227028-8400</v>
@@ -656,7 +656,7 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="15">
@@ -664,10 +664,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B15" t="str">
-        <v>16:27:41</v>
+        <v>16:27:53</v>
       </c>
       <c r="F15" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -681,7 +681,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B16" t="str">
-        <v>16:27:40</v>
+        <v>16:27:41</v>
       </c>
       <c r="F16" t="str">
         <v>227028-8400</v>
@@ -690,7 +690,7 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="17">
@@ -698,10 +698,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B17" t="str">
-        <v>16:27:38</v>
+        <v>16:27:41</v>
       </c>
       <c r="F17" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -715,7 +715,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B18" t="str">
-        <v>16:25:43</v>
+        <v>16:27:40</v>
       </c>
       <c r="F18" t="str">
         <v>227028-8400</v>
@@ -724,7 +724,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B19" t="str">
-        <v>16:25:43</v>
+        <v>16:27:38</v>
       </c>
       <c r="F19" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -749,7 +749,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B20" t="str">
-        <v>16:25:41</v>
+        <v>16:25:43</v>
       </c>
       <c r="F20" t="str">
         <v>227028-8400</v>
@@ -758,7 +758,7 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="21">
@@ -766,10 +766,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B21" t="str">
-        <v>16:25:40</v>
+        <v>16:25:43</v>
       </c>
       <c r="F21" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -783,7 +783,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B22" t="str">
-        <v>16:22:41</v>
+        <v>16:25:41</v>
       </c>
       <c r="F22" t="str">
         <v>227028-8400</v>
@@ -792,7 +792,7 @@
         <v/>
       </c>
       <c r="H22" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="23">
@@ -800,10 +800,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B23" t="str">
-        <v>16:22:41</v>
+        <v>16:25:40</v>
       </c>
       <c r="F23" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -817,7 +817,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B24" t="str">
-        <v>16:22:40</v>
+        <v>16:22:41</v>
       </c>
       <c r="F24" t="str">
         <v>227028-8400</v>
@@ -826,7 +826,7 @@
         <v/>
       </c>
       <c r="H24" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B25" t="str">
-        <v>16:22:39</v>
+        <v>16:22:41</v>
       </c>
       <c r="F25" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -851,7 +851,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B26" t="str">
-        <v>16:22:36</v>
+        <v>16:22:40</v>
       </c>
       <c r="F26" t="str">
         <v>227028-8400</v>
@@ -860,7 +860,7 @@
         <v/>
       </c>
       <c r="H26" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="27">
@@ -868,10 +868,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B27" t="str">
-        <v>16:22:36</v>
+        <v>16:22:39</v>
       </c>
       <c r="F27" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -885,7 +885,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B28" t="str">
-        <v>16:22:35</v>
+        <v>16:22:36</v>
       </c>
       <c r="F28" t="str">
         <v>227028-8400</v>
@@ -894,7 +894,7 @@
         <v/>
       </c>
       <c r="H28" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +902,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B29" t="str">
-        <v>16:22:34</v>
+        <v>16:22:36</v>
       </c>
       <c r="F29" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -919,7 +919,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B30" t="str">
-        <v>16:22:32</v>
+        <v>16:22:35</v>
       </c>
       <c r="F30" t="str">
         <v>227028-8400</v>
@@ -928,7 +928,7 @@
         <v/>
       </c>
       <c r="H30" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="31">
@@ -936,10 +936,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B31" t="str">
-        <v>16:22:32</v>
+        <v>16:22:34</v>
       </c>
       <c r="F31" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -953,7 +953,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B32" t="str">
-        <v>16:22:31</v>
+        <v>16:22:32</v>
       </c>
       <c r="F32" t="str">
         <v>227028-8400</v>
@@ -962,7 +962,7 @@
         <v/>
       </c>
       <c r="H32" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="33">
@@ -970,10 +970,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B33" t="str">
-        <v>16:22:30</v>
+        <v>16:22:32</v>
       </c>
       <c r="F33" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -987,7 +987,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B34" t="str">
-        <v>16:22:20</v>
+        <v>16:22:31</v>
       </c>
       <c r="F34" t="str">
         <v>227028-8400</v>
@@ -996,7 +996,7 @@
         <v/>
       </c>
       <c r="H34" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="35">
@@ -1004,10 +1004,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B35" t="str">
-        <v>16:22:20</v>
+        <v>16:22:30</v>
       </c>
       <c r="F35" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1021,7 +1021,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B36" t="str">
-        <v>16:22:18</v>
+        <v>16:22:20</v>
       </c>
       <c r="F36" t="str">
         <v>227028-8400</v>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
       <c r="H36" t="str">
-        <v>MATCHED_FIELD</v>
+        <v>ALL_FIELDS_MATCHED</v>
       </c>
     </row>
     <row r="37">
@@ -1038,10 +1038,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B37" t="str">
-        <v>16:22:16</v>
+        <v>16:22:20</v>
       </c>
       <c r="F37" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1055,10 +1055,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B38" t="str">
-        <v>16:20:12</v>
+        <v>16:22:18</v>
       </c>
       <c r="F38" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1072,10 +1072,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B39" t="str">
-        <v>16:11:16</v>
+        <v>16:22:16</v>
       </c>
       <c r="F39" t="str">
-        <v>227028-8400</v>
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1089,7 +1089,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B40" t="str">
-        <v>16:11:12</v>
+        <v>16:20:12</v>
       </c>
       <c r="F40" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1106,10 +1106,10 @@
         <v>17/12/2025</v>
       </c>
       <c r="B41" t="str">
-        <v>16:08:26</v>
+        <v>16:11:16</v>
       </c>
       <c r="F41" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
+        <v>227028-8400</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1123,7 +1123,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B42" t="str">
-        <v>16:07:53</v>
+        <v>16:11:12</v>
       </c>
       <c r="F42" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1140,7 +1140,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B43" t="str">
-        <v>16:06:10</v>
+        <v>16:08:26</v>
       </c>
       <c r="F43" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1157,7 +1157,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B44" t="str">
-        <v>16:00:21</v>
+        <v>16:07:53</v>
       </c>
       <c r="F44" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1174,7 +1174,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B45" t="str">
-        <v>15:12:54</v>
+        <v>16:06:10</v>
       </c>
       <c r="F45" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1183,7 +1183,7 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <v>ALL_FIELDS_MATCHED</v>
+        <v>MATCHED_FIELD</v>
       </c>
     </row>
     <row r="46">
@@ -1191,7 +1191,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B46" t="str">
-        <v>15:12:54</v>
+        <v>16:00:21</v>
       </c>
       <c r="F46" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1208,7 +1208,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B47" t="str">
-        <v>15:10:44</v>
+        <v>15:12:54</v>
       </c>
       <c r="F47" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1225,7 +1225,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B48" t="str">
-        <v>15:10:44</v>
+        <v>15:12:54</v>
       </c>
       <c r="F48" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1242,7 +1242,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B49" t="str">
-        <v>15:08:22</v>
+        <v>15:10:44</v>
       </c>
       <c r="F49" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1259,7 +1259,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B50" t="str">
-        <v>15:08:22</v>
+        <v>15:10:44</v>
       </c>
       <c r="F50" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1276,7 +1276,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B51" t="str">
-        <v>14:55:13</v>
+        <v>15:08:22</v>
       </c>
       <c r="F51" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1293,7 +1293,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B52" t="str">
-        <v>14:55:13</v>
+        <v>15:08:22</v>
       </c>
       <c r="F52" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1310,7 +1310,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B53" t="str">
-        <v>14:52:03</v>
+        <v>14:55:13</v>
       </c>
       <c r="F53" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1327,7 +1327,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B54" t="str">
-        <v>14:52:03</v>
+        <v>14:55:13</v>
       </c>
       <c r="F54" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1344,7 +1344,7 @@
         <v>17/12/2025</v>
       </c>
       <c r="B55" t="str">
-        <v>14:50:28</v>
+        <v>14:52:03</v>
       </c>
       <c r="F55" t="str">
         <v>UL1569AWG22RED/BLACK(BARE)</v>
@@ -1361,21 +1361,55 @@
         <v>17/12/2025</v>
       </c>
       <c r="B56" t="str">
+        <v>14:52:03</v>
+      </c>
+      <c r="F56" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v>MATCHED_FIELD</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B57" t="str">
         <v>14:50:28</v>
       </c>
-      <c r="F56" t="str">
-        <v>UL1569AWG22RED/BLACK(BARE)</v>
-      </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-      <c r="H56" t="str">
+      <c r="F57" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v>ALL_FIELDS_MATCHED</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>17/12/2025</v>
+      </c>
+      <c r="B58" t="str">
+        <v>14:50:28</v>
+      </c>
+      <c r="F58" t="str">
+        <v>UL1569AWG22RED/BLACK(BARE)</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
         <v>MATCHED_FIELD</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H58"/>
   </ignoredErrors>
 </worksheet>
 </file>